--- a/meta/3-7-2.xlsx
+++ b/meta/3-7-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\гвц\Desktop\Миссия Мархонько\Метаданные для заполнения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B82EE0-A558-4C31-852C-7512DBAF5704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.7.2." sheetId="7" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,11 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -363,10 +355,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -409,10 +397,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,242 +680,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="392.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="392.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="216.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:2" ht="213" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:2" ht="211.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="225.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="5"/>
-      <c r="K65" s="3"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="4"/>
+      <c r="K63" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2" display="http://www.stat.kg/ru/publications/"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId2" display="http://www.stat.kg/ru/publications/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/meta/3-7-2.xlsx
+++ b/meta/3-7-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C51E28-6185-4E05-85D4-EC06343CDE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +110,6 @@
     <t>3.7: К 2030 году обеспечить всеобщий доступ к услугам по охране сексуального и репродуктивного здоровья, включая услуги по планированию семьи, информирование и просвещение, и учет вопросов охраны репродуктивного здоровья в национальных стратегиях и программах</t>
   </si>
   <si>
-    <t>3.7.2: Рождаемость среди подростков (в возрасте от 15 до 19 лет) на 1000 женщин в данной возрастной группе</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР (Отдел демографической статистики)</t>
   </si>
   <si>
@@ -121,12 +117,6 @@
   </si>
   <si>
     <t>Jmaatkulova@stat.kg</t>
-  </si>
-  <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Ежегодное число рождений у женщин в возрасте 15-19 лет на 1000 женщин соответствующей возрастной группы.</t>
@@ -164,18 +154,35 @@
   </si>
   <si>
     <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», "Уровень жизни населения КР", «Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>0(312) 32 55 46</t>
+  </si>
+  <si>
+    <t>3.7.2 Показатель рождаемости среди девушек-подростков ( в возрасте от 15 до 19 лет) на 1000 девушек-подростков в той же возрастной группе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,32 +249,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{CF210A8D-A104-4513-B1F8-0DFBEC62BC9C}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D29F0-9973-41D4-9E24-628179B9C4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +599,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,23 +630,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -697,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
